--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opencl_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE25A698-CE7B-4602-8D51-3F61C33739D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C5028-22A6-46D2-81F5-097A1D3AB95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1656" windowWidth="17280" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="1032" windowWidth="17280" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Processes Count</t>
   </si>
   <si>
     <t>Time, sec</t>
+  </si>
+  <si>
+    <t>Processor:</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8265, 1.6 гц</t>
+  </si>
+  <si>
+    <t>Number of Cores</t>
   </si>
 </sst>
 </file>
@@ -1175,16 +1184,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1477,15 +1486,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1600,23 +1610,33 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opencl_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C5028-22A6-46D2-81F5-097A1D3AB95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7F1FF-696B-4015-B87A-1FF28C8F41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3204" yWindow="1032" windowWidth="17280" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Processes Count</t>
   </si>
@@ -33,13 +33,10 @@
     <t>Time, sec</t>
   </si>
   <si>
-    <t>Processor:</t>
+    <t>Videocard:</t>
   </si>
   <si>
-    <t>Intel Core i5-8265, 1.6 гц</t>
-  </si>
-  <si>
-    <t>Number of Cores</t>
+    <t>NVIDIA GeForce MX250</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1484,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,12 +1625,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
